--- a/Docs/eeprom存储参数规划.xlsx
+++ b/Docs/eeprom存储参数规划.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="15945" activeTab="1"/>
+    <workbookView windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="存储参数" sheetId="1" r:id="rId1"/>
     <sheet name="串口通信协议" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>基地址</t>
   </si>
@@ -147,6 +146,9 @@
     <t>数据</t>
   </si>
   <si>
+    <t>校验</t>
+  </si>
+  <si>
     <t>帧尾</t>
   </si>
   <si>
@@ -166,6 +168,12 @@
   </si>
   <si>
     <t>0x45</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>XOR</t>
   </si>
 </sst>
 </file>
@@ -173,9 +181,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -196,43 +204,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,53 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -325,7 +325,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,43 +368,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,144 +548,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -570,6 +578,43 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -580,6 +625,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,24 +671,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,26 +682,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +720,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,15 +858,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1206,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1468,10 +1502,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1479,90 +1513,84 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>